--- a/biology/Microbiologie/Metallosphaera/Metallosphaera.xlsx
+++ b/biology/Microbiologie/Metallosphaera/Metallosphaera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Metallosphaera est un genre d'archées de la famille des Sulfolobaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Metallosphaera a été créé en 1989 par Gertrud Huber (d), Carola Spinnler (d), Agata Gambacorta (d) et Karl Stetter[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Metallosphaera a été créé en 1989 par Gertrud Huber (d), Carola Spinnler (d), Agata Gambacorta (d) et Karl Stetter,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (19 octobre 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (19 octobre 2022) :
 Metallosphaera cuprina Liu et al., 2011
 Metallosphaera hakonensis (Takayanagi et al., 1996) Kurosawa et al., 2003
 Metallosphaera javensis Sakai et al., 2022
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Gertrud Huber, Carola Spinnler, Agata Gambacorta et Karl O. Stetter, « Metallosphaera sedula gen, and sp. nov. Represents a New Genus of Aerobic, Metal-Mobilizing, Thermoacidophilic Archaebacteria », Systematic and Applied Microbiology, Elsevier, vol. 12, no 1,‎ juillet 1989, p. 38-47 (ISSN 0723-2020 et 0172-5564, OCLC 51392980, DOI 10.1016/S0723-2020(89)80038-4, lire en ligne)</t>
         </is>
